--- a/Clean All Rats.xlsx
+++ b/Clean All Rats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuyingwang/Desktop/csci522paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCD68D24-50ED-EC4E-8986-98BCFB6EE854}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21F34CA-0CB8-B44E-9E52-9F09EFDED641}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33520" yWindow="3340" windowWidth="27240" windowHeight="15940" activeTab="3" xr2:uid="{8B5FA330-BE0C-AF47-AEB2-1718C7E087D3}"/>
+    <workbookView xWindow="580" yWindow="500" windowWidth="28800" windowHeight="16020" activeTab="2" xr2:uid="{8B5FA330-BE0C-AF47-AEB2-1718C7E087D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38497,8 +38497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BA28038-119F-7443-978C-44E1BC1F5214}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -39222,7 +39222,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A611045B-86B8-3347-98F7-BFDEBBFB904A}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -39512,8 +39512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6D9F3BB-EAD0-FB4F-9B73-64986843E72A}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
